--- a/Pull Request Here/Caravan Formation Improvements - 2927335733/Caravan Formation Improvements - 2927335733.xlsx
+++ b/Pull Request Here/Caravan Formation Improvements - 2927335733/Caravan Formation Improvements - 2927335733.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87167DF-2156-4E2C-A7AD-C19883694702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D0DDB3-C9AF-441A-BC0F-40D797F3869F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,253 +575,254 @@
     <t>상단 구성 재개</t>
   </si>
   <si>
+    <t>The caravan will leave the map, even if there is still items to load. This only works if all animals are already gathered and no colonist has a mental break.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to leave early?\n\nThis can not be undone.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pawns satisfying their needs right now will stop doing so.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The following pawns are in a bad mood and may have a breakdown before reaching the map edge:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 출구 지점 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The chosen exit spot is invalid.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downed pawns have been removed from the caravan.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The chosen exit spot is not reachable by all colonists of the caravan. The caravan will use a spot chosen by vanilla to leave the map. You can set a new exit spot using the appropriate gizmo on a caravan pawn.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 구성원이 상단에서 제외되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select formation spot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 지점이거나, 누군가가 선택한 지점으로 이동할 수 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 구성 지점 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 지점이거나, 누군가가 선택한 지점으로 이동할 수 없습니다. 해당 상단은 이전 위치에서 계속 구성합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 지점에 도달할 수 없으므로 기존 방식대로 구성 장소를 설정합니다."상단 구성 지점 설정"을 통해 다시 설정할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말로 상단 구성을 취소하시겠습니까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to cancel the formation of the caravan?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말로 지금 바로 떠나게 합니까?\n\n남은 물품은 더 이상 적재할 수 없게 됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left/right click to jump to another member of the caravan.\n\nHover over the gizmo to have an arrow pointed to each member.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단으로 화면 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 장소 설정</t>
+  </si>
+  <si>
+    <t>선택한 지점으로 상단이 진입합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 지점이거나, 상단이 선택한 지점으로 진입할 수 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPERIMENTAL: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>When active, the method Pawn_PlayerSettings.RespectsAllowedArea gets patched and checks, if the dutyDef of the pawn is pauseCaravan. As it costs performance even if there is no caravan formed right now, the patch is disabled by default.\n\nNevertheless the performance impact should be close to not measurable:\nFrom about 0.057ms to 0.058ms on average when 50 pawns are idling and therefore pathing quite often.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have not tested this feature too much, because I am fed up messing around with caravan formation.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자력으로 움직일 수 없는 구성원은 마지막에 데려감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 출구 장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 진입 장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainAffordanceDef</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 구성원들이 하던 행동을 중단하고 출구로 이동합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상단은 선택한 지점에서 지역을 떠납니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 지점에 도달할 수 없으므로 기존 방식대로 출구를 설정합니다. "상단 출구 지점 설정"을 통해 다시 설정할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 구성원은 기분이 나빠 이동 중에 정신이상을 겪을 위험이 있습니다:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designates a spot where your caravans will leave the map.\nThere can only be one of this type.\nPriority: Manually assigned exit spot &gt; this building &gt; vanilla.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designates a spot where your caravans will arrive on the map.\nThere can only be one of this type.\nPriority: Manually assigned arrival spot &gt; this building &gt; vanilla.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>walkable and map edge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통행 가능한 지역 가장자리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 상단이 떠나는 장소를 지정합니다. 출구 장소는 하나만 설치할 수 있습니다.\n\n수동으로 지점을 정했다면 이 장소는 후순위로 밀려납니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 상단이 진입하는 장소를 지정합니다. 진입 장소는 하나만 설치할 수 있습니다.\n\n수동으로 지점을 정했다면 이 장소는 후순위로 밀려납니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Needs to be placed at the map edge.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 가장자리에 설치해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역에 진입하면 가축을 근처에 묶어놓음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The caravan will form at the chosen spot.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 상단은 선택한 지점에서 상단을 구성합니다. 만약 장소가 적절하지 않으면 임의의 장소에서 구성합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면을 해당 상단의 구성원 쪽으로 이동합니다.\n\n마우스의 좌/우 클릭을 통해 다음/이전 구성원을 선택할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시동안 상단 구성을 중지합니다.\n\n주의: 해당 구성원들은 허가구역을 지키지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (특정 지점에서)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 상단의 "상단 구성 장소"를 정합니다.\n\n상단 구성 중에도 위치를 계속 변경할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 상단이 떠나기 위한 출구를 정합니다.\n\n모든 구성원이 도달할 수 있는 지역의 가장자리만 선택할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 구성이 중지되어도 구성원들이 허가구역을 지키도록 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 탭에서 출구 장소와 도착 장소를 건설할 수 있게 합니다.\n\nCanDesignateCell 메서드가 패치되기 때문에, 성능에 거의 영향을 미치지 않습니다.\n\n자체적인 호환성 패치가 있으므로, 모드에서 추가된 TerrainAffordanceDef도 지원합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주변 가축을 묶는 범위: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조련사나 상단 구성원이 가축을 추가로 묶기 위해 주변을 탐색하는 범위를 제한합니다.\n\n기본값: 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정착민이 한 번에 데려올 수 있는 가축의 수를 제한합니다.\n\n기본값: 10\n\n참고: 상단이 출구를 향해 나갈 때는 값을 무시합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 구성에 유용한 명령 버튼을 추가합니다 (활성화 권장)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작자: 이 기능은 테스트를 많이 해보지 않았습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pawn_PlayerSettings.RespectsAllowedArea 메서드가 패치되어 정착민의 dutyDef 가 pauseCaravan 인지 확인합니다.\n50명이 빈둥거리며 자주 돌아다닐 때, 평균적으로 약 0.001ms를 차지했습니다.\n\n유의미한 성능 저하는 없지만,\n상단이 없어도 영향을 미치기 때문에\n기본적으로 비활성화되어 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예를들어\n지역에서 상단이 남쪽으로 나가면,\n세계지도에서도 상단이 남쪽에서 등장합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역에 들어가면 일단 임시로 가축을 근처에 묶어놓습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 구성이 중지되면 가축을 묶어놓음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변방계 주민들은 구성중인 상단에서 가축이 출산하면, 태어난 가축도 묶기 위해 처음부터 전부 다시 묶습니다.\n\n이 행동을 막는 기능입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>즉시 지역 떠나기</t>
-  </si>
-  <si>
-    <t>The caravan will leave the map, even if there is still items to load. This only works if all animals are already gathered and no colonist has a mental break.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you sure you want to leave early?\n\nThis can not be undone.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pawns satisfying their needs right now will stop doing so.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The following pawns are in a bad mood and may have a breakdown before reaching the map edge:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 출구 지점 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The chosen exit spot is invalid.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Downed pawns have been removed from the caravan.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The chosen exit spot is not reachable by all colonists of the caravan. The caravan will use a spot chosen by vanilla to leave the map. You can set a new exit spot using the appropriate gizmo on a caravan pawn.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 구성원이 상단에서 제외되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select formation spot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 지점이거나, 누군가가 선택한 지점으로 이동할 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 구성 지점 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 지점이거나, 누군가가 선택한 지점으로 이동할 수 없습니다. 해당 상단은 이전 위치에서 계속 구성합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 지점에 도달할 수 없으므로 기존 방식대로 구성 장소를 설정합니다."상단 구성 지점 설정"을 통해 다시 설정할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말로 상단 구성을 취소하시겠습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you sure you want to cancel the formation of the caravan?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말로 지금 바로 떠나게 합니까?\n\n남은 물품은 더 이상 적재할 수 없게 됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left/right click to jump to another member of the caravan.\n\nHover over the gizmo to have an arrow pointed to each member.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단으로 화면 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 장소 설정</t>
-  </si>
-  <si>
-    <t>선택한 지점으로 상단이 진입합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 지점이거나, 상단이 선택한 지점으로 진입할 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EXPERIMENTAL: </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>When active, the method Pawn_PlayerSettings.RespectsAllowedArea gets patched and checks, if the dutyDef of the pawn is pauseCaravan. As it costs performance even if there is no caravan formed right now, the patch is disabled by default.\n\nNevertheless the performance impact should be close to not measurable:\nFrom about 0.057ms to 0.058ms on average when 50 pawns are idling and therefore pathing quite often.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I have not tested this feature too much, because I am fed up messing around with caravan formation.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자력으로 움직일 수 없는 구성원은 마지막에 데려감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 출구 장소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 진입 장소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TerrainAffordanceDef</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 구성원들이 하던 행동을 중단하고 출구로 이동합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 상단은 선택한 지점에서 지역을 떠납니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 지점에 도달할 수 없으므로 기존 방식대로 출구를 설정합니다. "상단 출구 지점 설정"을 통해 다시 설정할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 구성원은 기분이 나빠 이동 중에 정신이상을 겪을 위험이 있습니다:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Designates a spot where your caravans will leave the map.\nThere can only be one of this type.\nPriority: Manually assigned exit spot &gt; this building &gt; vanilla.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Designates a spot where your caravans will arrive on the map.\nThere can only be one of this type.\nPriority: Manually assigned arrival spot &gt; this building &gt; vanilla.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>walkable and map edge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통행 가능한 지역 가장자리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어의 상단이 떠나는 장소를 지정합니다. 출구 장소는 하나만 설치할 수 있습니다.\n\n수동으로 지점을 정했다면 이 장소는 후순위로 밀려납니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어의 상단이 진입하는 장소를 지정합니다. 진입 장소는 하나만 설치할 수 있습니다.\n\n수동으로 지점을 정했다면 이 장소는 후순위로 밀려납니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Needs to be placed at the map edge.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 가장자리에 설치해야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 구성이 중지되어도 가축을 묶어놓음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역에 진입하면 가축을 근처에 묶어놓음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵에 들어가면 일단 임시로 가축을 근처에 묶어놓습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The caravan will form at the chosen spot.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 상단은 선택한 지점에서 상단을 구성합니다. 만약 장소가 적절하지 않으면 임의의 장소에서 구성합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면을 해당 상단의 구성원 쪽으로 이동합니다.\n\n마우스의 좌/우 클릭을 통해 다음/이전 구성원을 선택할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠시동안 상단 구성을 중지합니다.\n\n주의: 해당 구성원들은 허가구역을 지키지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 바로 이 상단을 떠나게 합니다.\n\n정신이상을 겪는 구성원이 있으면 작동이 중지됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (특정 지점에서)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵에서 상단이 남쪽으로 나가면,\n세계지도에서도 상단이 남쪽에서 등장합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 상단의 "상단 구성 장소"를 정합니다.\n\n상단 구성 중에도 위치를 계속 변경할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 상단이 떠나기 위한 출구를 정합니다.\n\n모든 구성원이 도달할 수 있는 지역의 가장자리만 선택할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변방계 주민들은 구성중인 상단에서 가축이 출산하면, 태어난 가축도 묶기 위해 처음부터 다시 묶습니다.\n\n이 행동을 막는 기능입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 구성이 중지되어도 구성원들이 허가구역을 지키도록 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 탭에서 출구 장소와 도착 장소를 건설할 수 있게 합니다.\n\nCanDesignateCell 메서드가 패치되기 때문에, 성능에 거의 영향을 미치지 않습니다.\n\n자체적인 호환성 패치가 있으므로, 모드에서 추가된 TerrainAffordanceDef도 지원합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">주변 가축을 묶는 범위: </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조련사나 상단 구성원이 가축을 추가로 묶기 위해 주변을 탐색하는 범위를 제한합니다.\n\n기본값: 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정착민이 한 번에 데려올 수 있는 가축의 수를 제한합니다.\n\n기본값: 10\n\n참고: 상단이 출구를 향해 나갈 때는 값을 무시합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 구성에 유용한 명령 버튼을 추가합니다 (활성화 권장)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작자: 이 기능은 테스트를 많이 해보지 않았습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pawn_PlayerSettings.RespectsAllowedArea 메서드가 패치되어 정착민의 dutyDef 가 pauseCaravan 인지 확인합니다.\n50명이 빈둥거리며 자주 돌아다닐 때, 평균적으로 약 0.001ms를 차지했습니다.\n\n유의미한 성능 저하는 없지만,\n상단이 없어도 영향을 미치기 때문에\n기본적으로 비활성화되어 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 바로 이 상단을 떠나게 합니다.\n\n도중에 구성원 중 누군가 정신이상을 겪으면 작동이 중지됩니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1245,10 +1246,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1265,7 +1266,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1279,10 +1280,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1290,16 +1291,16 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1367,7 +1368,7 @@
         <v>160</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1384,7 +1385,7 @@
         <v>161</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,7 +1419,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,7 +1453,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1469,7 +1470,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,7 +1487,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1503,7 +1504,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1554,7 +1555,7 @@
         <v>165</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1605,7 +1606,7 @@
         <v>170</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1619,10 +1620,10 @@
         <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1639,7 +1640,7 @@
         <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1653,10 +1654,10 @@
         <v>71</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1670,10 +1671,10 @@
         <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1690,7 +1691,7 @@
         <v>76</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1724,7 +1725,7 @@
         <v>82</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1758,7 +1759,7 @@
         <v>174</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1809,7 +1810,7 @@
         <v>96</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1823,10 +1824,10 @@
         <v>98</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1840,10 +1841,10 @@
         <v>100</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1857,10 +1858,10 @@
         <v>102</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1874,10 +1875,10 @@
         <v>104</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1894,7 +1895,7 @@
         <v>107</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1911,7 +1912,7 @@
         <v>110</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1928,7 +1929,7 @@
         <v>113</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1942,10 +1943,10 @@
         <v>115</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1959,10 +1960,10 @@
         <v>117</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1976,10 +1977,10 @@
         <v>119</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1993,10 +1994,10 @@
         <v>121</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2013,7 +2014,7 @@
         <v>124</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2027,10 +2028,10 @@
         <v>126</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2047,7 +2048,7 @@
         <v>129</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2064,7 +2065,7 @@
         <v>132</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2078,10 +2079,10 @@
         <v>134</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2098,7 +2099,7 @@
         <v>137</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2112,10 +2113,10 @@
         <v>139</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,7 +2133,7 @@
         <v>142</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2149,7 +2150,7 @@
         <v>145</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2166,7 +2167,7 @@
         <v>148</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2183,7 +2184,7 @@
         <v>151</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2197,10 +2198,10 @@
         <v>153</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
